--- a/FileGunBasin/9 August-04 StormBasin/190 php versions sites rdac/190 php versions sites rdac  - 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/190 php versions sites rdac/190 php versions sites rdac  - 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/190 php versions sites rdac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351C2082-A16E-2042-B709-2D3BEB9B96AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB18AF0A-C23F-C240-AD45-1B6A7EF972D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{48A94807-0F75-724F-AAF3-93115D2E4676}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
